--- a/data/calculation.xlsx
+++ b/data/calculation.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Results" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Results-2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="59">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -146,9 +147,24 @@
     <t xml:space="preserve">Bayu Adji Pratama</t>
   </si>
   <si>
+    <t xml:space="preserve">Bahasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemudahan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non-Swipe</t>
   </si>
   <si>
+    <t xml:space="preserve">Swipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Inggris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Jawa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rata-rata Performa Non-Swipe</t>
   </si>
   <si>
@@ -176,15 +192,6 @@
     <t xml:space="preserve">Akurasi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bahasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahasa Inggris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahasa Jawa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rata-rata Standar Deviasi Non-Swipe</t>
   </si>
   <si>
@@ -192,9 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swipe</t>
   </si>
 </sst>
 </file>
@@ -294,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +313,14 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -335,7 +347,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,6 +365,18 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -364,17 +396,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="1" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="1" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="46" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="51" style="0" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,7 +1502,68 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR11" s="0" t="n">
+        <f aca="false">AVERAGE(AQ2:AQ7)</f>
+        <v>3.66666666666667</v>
+      </c>
+      <c r="AS11" s="0" t="n">
+        <f aca="false">AVERAGE(AR2:AR7)</f>
+        <v>2.16666666666667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR12" s="0" t="n">
+        <f aca="false">AVERAGE(AS2:AS7)</f>
+        <v>3</v>
+      </c>
+      <c r="AS12" s="0" t="n">
+        <f aca="false">AVERAGE(AT2:AT7)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR13" s="0" t="n">
+        <f aca="false">AVERAGE(AU2:AU7)</f>
+        <v>3.16666666666667</v>
+      </c>
+      <c r="AS13" s="0" t="n">
+        <f aca="false">AVERAGE(AV2:AV7)</f>
+        <v>2.16666666666667</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AS9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1478,13 +1579,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X17" activeCellId="0" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.74"/>
@@ -1497,2475 +1598,2563 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="28.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="P3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="P3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9" t="s">
+      <c r="Q4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="Y4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="13" t="n">
         <f aca="false">B12</f>
         <v>30.9566666666667</v>
       </c>
-      <c r="M5" s="10" t="n">
+      <c r="M5" s="13" t="n">
         <f aca="false">C12</f>
         <v>92.16</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="10" t="n">
+      <c r="Q5" s="13" t="n">
         <f aca="false">L8</f>
         <v>32.2238888888889</v>
       </c>
-      <c r="R5" s="10" t="n">
+      <c r="R5" s="13" t="n">
         <f aca="false">M8</f>
         <v>92.1277777777778</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="10" t="n">
+      <c r="U5" s="13" t="n">
         <f aca="false">L20</f>
         <v>18.18</v>
       </c>
-      <c r="V5" s="10" t="n">
+      <c r="V5" s="13" t="n">
         <f aca="false">M20</f>
         <v>48.3072222222222</v>
       </c>
+      <c r="X5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="15" t="n">
         <v>49.38</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="15" t="n">
         <v>85.07</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="15" t="n">
         <v>52.47</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="15" t="n">
         <v>87.23</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="15" t="n">
         <v>44.43</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="15" t="n">
         <v>87.75</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="16" t="n">
         <f aca="false">AVERAGE(B6,D6,F6)</f>
         <v>48.76</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="16" t="n">
         <f aca="false">AVERAGE(C6,E6,G6)</f>
         <v>86.6833333333333</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="10" t="n">
+      <c r="K6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="13" t="n">
         <f aca="false">D12</f>
         <v>31.8733333333333</v>
       </c>
-      <c r="M6" s="10" t="n">
+      <c r="M6" s="13" t="n">
         <f aca="false">E12</f>
         <v>90.3583333333333</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="10" t="n">
+      <c r="P6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="13" t="n">
         <f aca="false">L34</f>
         <v>39.1522222222222</v>
       </c>
-      <c r="R6" s="10" t="n">
+      <c r="R6" s="13" t="n">
         <f aca="false">M34</f>
         <v>82.7427777777778</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="10" t="n">
+      <c r="T6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="13" t="n">
         <f aca="false">L46</f>
         <v>23.2427777777778</v>
       </c>
-      <c r="V6" s="10" t="n">
+      <c r="V6" s="13" t="n">
         <f aca="false">M46</f>
         <v>45.5494444444445</v>
       </c>
+      <c r="X6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="15" t="n">
         <v>28.98</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="15" t="n">
         <v>87.54</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="15" t="n">
         <v>29.72</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="15" t="n">
         <v>86.11</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="15" t="n">
         <v>44.01</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="15" t="n">
         <v>92.8</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="16" t="n">
         <f aca="false">AVERAGE(B7,D7,F7)</f>
         <v>34.2366666666667</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="16" t="n">
         <f aca="false">AVERAGE(C7,E7,G7)</f>
         <v>88.8166666666667</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="10" t="n">
+      <c r="K7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="13" t="n">
         <f aca="false">F12</f>
         <v>33.8416666666667</v>
       </c>
-      <c r="M7" s="10" t="n">
+      <c r="M7" s="13" t="n">
         <f aca="false">G12</f>
         <v>93.865</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="10" t="n">
+      <c r="P7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="13" t="n">
         <f aca="false">L60</f>
         <v>34.2188888888889</v>
       </c>
-      <c r="R7" s="10" t="n">
+      <c r="R7" s="13" t="n">
         <f aca="false">M60</f>
         <v>84.5783333333333</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="10" t="n">
+      <c r="T7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="13" t="n">
         <f aca="false">L72</f>
         <v>14.1527777777778</v>
       </c>
-      <c r="V7" s="10" t="n">
+      <c r="V7" s="13" t="n">
         <f aca="false">M72</f>
         <v>40.6027777777778</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="X7" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="Y7" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="n">
         <v>33.21</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="15" t="n">
         <v>98.72</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="15" t="n">
         <v>32.93</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="15" t="n">
         <v>89.31</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="15" t="n">
         <v>37.1</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="15" t="n">
         <v>91.46</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="16" t="n">
         <f aca="false">AVERAGE(B8,D8,F8)</f>
         <v>34.4133333333333</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="16" t="n">
         <f aca="false">AVERAGE(C8,E8,G8)</f>
         <v>93.1633333333333</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="10" t="n">
+      <c r="K8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="13" t="n">
         <f aca="false">AVERAGE(L5:L7)</f>
         <v>32.2238888888889</v>
       </c>
-      <c r="M8" s="10" t="n">
+      <c r="M8" s="13" t="n">
         <f aca="false">AVERAGE(M5:M7)</f>
         <v>92.1277777777778</v>
       </c>
+      <c r="X8" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="15" t="n">
         <v>17.91</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="15" t="n">
         <v>92.39</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="15" t="n">
         <v>19.34</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="15" t="n">
         <v>93.84</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="15" t="n">
         <v>20.97</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="15" t="n">
         <v>97.67</v>
       </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="16" t="n">
         <f aca="false">AVERAGE(B9,D9,F9)</f>
         <v>19.4066666666667</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="16" t="n">
         <f aca="false">AVERAGE(C9,E9,G9)</f>
         <v>94.6333333333333</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="P9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="X9" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="15" t="n">
         <v>38.35</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="15" t="n">
         <v>96.85</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="15" t="n">
         <v>37.44</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="15" t="n">
         <v>91.82</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="15" t="n">
         <v>35.57</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="15" t="n">
         <v>95.84</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="16" t="n">
         <f aca="false">AVERAGE(B10,D10,F10)</f>
         <v>37.12</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="16" t="n">
         <f aca="false">AVERAGE(C10,E10,G10)</f>
         <v>94.8366666666667</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>50</v>
+      <c r="P10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>17.91</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>92.39</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>19.34</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>93.84</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>20.97</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>97.67</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="16" t="n">
         <f aca="false">AVERAGE(B11,D11,F11)</f>
         <v>19.4066666666667</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="16" t="n">
         <f aca="false">AVERAGE(C11,E11,G11)</f>
         <v>94.6333333333333</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="10" t="n">
+      <c r="Q11" s="13" t="n">
         <f aca="false">H13</f>
         <v>11.2678497242112</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="13" t="n">
         <f aca="false">I13</f>
         <v>3.50917379745443</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="10" t="n">
+      <c r="U11" s="13" t="n">
         <f aca="false">H25</f>
         <v>14.9729143604191</v>
       </c>
-      <c r="V11" s="10" t="n">
+      <c r="V11" s="13" t="n">
         <f aca="false">I25</f>
         <v>45.0349482274805</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="n">
+      <c r="A12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="13" t="n">
         <f aca="false">AVERAGE(B6:B11)</f>
         <v>30.9566666666667</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="13" t="n">
         <f aca="false">AVERAGE(C6:C11)</f>
         <v>92.16</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="13" t="n">
         <f aca="false">AVERAGE(D6:D11)</f>
         <v>31.8733333333333</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="13" t="n">
         <f aca="false">AVERAGE(E6:E11)</f>
         <v>90.3583333333333</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="13" t="n">
         <f aca="false">AVERAGE(F6:F11)</f>
         <v>33.8416666666667</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="13" t="n">
         <f aca="false">AVERAGE(G6:G11)</f>
         <v>93.865</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="13" t="n">
         <f aca="false">AVERAGE(H6:H11)</f>
         <v>32.2238888888889</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="13" t="n">
         <f aca="false">AVERAGE(I6:I11)</f>
         <v>92.1277777777778</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="10" t="n">
+      <c r="P12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="13" t="n">
         <f aca="false">H39</f>
         <v>29.3032135262152</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="13" t="n">
         <f aca="false">I39</f>
         <v>22.0780260205246</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="10" t="n">
+      <c r="T12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="13" t="n">
         <f aca="false">H51</f>
         <v>26.9263993068072</v>
       </c>
-      <c r="V12" s="10" t="n">
+      <c r="V12" s="13" t="n">
         <f aca="false">I51</f>
         <v>43.6941965847318</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="10" t="n">
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="n">
         <f aca="false">STDEV(B6:B11)</f>
         <v>12.1942308763885</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="13" t="n">
         <f aca="false">STDEV(C6:C11)</f>
         <v>5.2296845029122</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="13" t="n">
         <f aca="false">STDEV(D6:D11)</f>
         <v>12.4509656921327</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="13" t="n">
         <f aca="false">STDEV(E6:E11)</f>
         <v>3.32608729089702</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="13" t="n">
         <f aca="false">STDEV(F6:F11)</f>
         <v>10.5874575166405</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="13" t="n">
         <f aca="false">STDEV(G6:G11)</f>
         <v>3.9285658961</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="13" t="n">
         <f aca="false">STDEV(H6:H11)</f>
         <v>11.2678497242112</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="13" t="n">
         <f aca="false">STDEV(I6:I11)</f>
         <v>3.50917379745443</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="10" t="n">
+      <c r="P13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="13" t="n">
         <f aca="false">H65</f>
         <v>23.1591292934262</v>
       </c>
-      <c r="R13" s="10" t="n">
+      <c r="R13" s="13" t="n">
         <f aca="false">I65</f>
         <v>12.7388624557559</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="10" t="n">
+      <c r="T13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="13" t="n">
         <f aca="false">H77</f>
         <v>13.381133719892</v>
       </c>
-      <c r="V13" s="10" t="n">
+      <c r="V13" s="13" t="n">
         <f aca="false">I77</f>
         <v>40.0548244516419</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="10" t="n">
+      <c r="L17" s="13" t="n">
         <f aca="false">B24</f>
         <v>18.1816666666667</v>
       </c>
-      <c r="M17" s="10" t="n">
+      <c r="M17" s="13" t="n">
         <f aca="false">C24</f>
         <v>44.97</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>16.4</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>73.25</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>22.97</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>87.5</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>26.03</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>88.78</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="16" t="n">
         <f aca="false">AVERAGE(B18,D18,F18)</f>
         <v>21.8</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="16" t="n">
         <f aca="false">AVERAGE(C18,E18,G18)</f>
         <v>83.1766666666667</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="10" t="n">
+      <c r="K18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="13" t="n">
         <f aca="false">D24</f>
         <v>18.1566666666667</v>
       </c>
-      <c r="M18" s="10" t="n">
+      <c r="M18" s="13" t="n">
         <f aca="false">E24</f>
         <v>50.89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>29.8</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>3.91</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>24.23</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>16.28</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>23.52</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>11.06</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="16" t="n">
         <f aca="false">AVERAGE(B19,D19,F19)</f>
         <v>25.85</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="16" t="n">
         <f aca="false">AVERAGE(C19,E19,G19)</f>
         <v>10.4166666666667</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="10" t="n">
+      <c r="K19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="13" t="n">
         <f aca="false">F24</f>
         <v>18.2016666666667</v>
       </c>
-      <c r="M19" s="10" t="n">
+      <c r="M19" s="13" t="n">
         <f aca="false">G24</f>
         <v>49.0616666666667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>25.54</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>88.35</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>24.3</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>92.32</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>24.09</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>88.55</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="16" t="n">
         <f aca="false">AVERAGE(B20,D20,F20)</f>
         <v>24.6433333333333</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="16" t="n">
         <f aca="false">AVERAGE(C20,E20,G20)</f>
         <v>89.74</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="10" t="n">
+      <c r="K20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="13" t="n">
         <f aca="false">AVERAGE(L17:L19)</f>
         <v>18.18</v>
       </c>
-      <c r="M20" s="10" t="n">
+      <c r="M20" s="13" t="n">
         <f aca="false">AVERAGE(M17:M19)</f>
         <v>48.3072222222222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>3.73</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>8.71</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>5.07</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="16" t="n">
         <f aca="false">AVERAGE(B21,D21,F21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="I21" s="16" t="n">
         <f aca="false">AVERAGE(C21,E21,G21)</f>
         <v>5.83666666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>37.35</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>96.85</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>37.44</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>91.82</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>35.57</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>95.84</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">AVERAGE(B22,D22,F22)</f>
         <v>36.7866666666667</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="16" t="n">
         <f aca="false">AVERAGE(C22,E22,G22)</f>
         <v>94.8366666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>3.73</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>8.71</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>5.07</v>
       </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="16" t="n">
         <f aca="false">AVERAGE(B23,D23,F23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="16" t="n">
         <f aca="false">AVERAGE(C23,E23,G23)</f>
         <v>5.83666666666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="10" t="n">
+      <c r="A24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="13" t="n">
         <f aca="false">AVERAGE(B18:B23)</f>
         <v>18.1816666666667</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="13" t="n">
         <f aca="false">AVERAGE(C18:C23)</f>
         <v>44.97</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="13" t="n">
         <f aca="false">AVERAGE(D18:D23)</f>
         <v>18.1566666666667</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E24" s="13" t="n">
         <f aca="false">AVERAGE(E18:E23)</f>
         <v>50.89</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="13" t="n">
         <f aca="false">AVERAGE(F18:F23)</f>
         <v>18.2016666666667</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="13" t="n">
         <f aca="false">AVERAGE(G18:G23)</f>
         <v>49.0616666666667</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="13" t="n">
         <f aca="false">AVERAGE(H18:H23)</f>
         <v>18.18</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="13" t="n">
         <f aca="false">AVERAGE(I18:I23)</f>
         <v>48.3072222222222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10" t="n">
+      <c r="A25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13" t="n">
         <f aca="false">STDEV(B18:B23)</f>
         <v>15.6261068941265</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="13" t="n">
         <f aca="false">STDEV(C18:C23)</f>
         <v>45.7395146454354</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="13" t="n">
         <f aca="false">STDEV(D18:D23)</f>
         <v>15.026444245618</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="13" t="n">
         <f aca="false">STDEV(E18:E23)</f>
         <v>43.5618153891685</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F25" s="13" t="n">
         <f aca="false">STDEV(F18:F23)</f>
         <v>14.7546622010355</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="13" t="n">
         <f aca="false">STDEV(G18:G23)</f>
         <v>46.1297021090172</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="13" t="n">
         <f aca="false">STDEV(H18:H23)</f>
         <v>14.9729143604191</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="13" t="n">
         <f aca="false">STDEV(I18:I23)</f>
         <v>45.0349482274805</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="9" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="10" t="n">
+      <c r="L31" s="13" t="n">
         <f aca="false">B38</f>
         <v>40.0383333333333</v>
       </c>
-      <c r="M31" s="10" t="n">
+      <c r="M31" s="13" t="n">
         <f aca="false">C38</f>
         <v>83.3433333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="11" t="n">
         <v>39.15</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="11" t="n">
         <v>87.99</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="11" t="n">
         <v>30.74</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="11" t="n">
         <v>79.78</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="11" t="n">
         <v>40.09</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="11" t="n">
         <v>87.64</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="16" t="n">
         <f aca="false">AVERAGE(B32,D32,F32)</f>
         <v>36.66</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="16" t="n">
         <f aca="false">AVERAGE(C32,E32,G32)</f>
         <v>85.1366666666667</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="10" t="n">
+      <c r="K32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="13" t="n">
         <f aca="false">D38</f>
         <v>37.305</v>
       </c>
-      <c r="M32" s="10" t="n">
+      <c r="M32" s="13" t="n">
         <f aca="false">E38</f>
         <v>80.995</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="11" t="n">
         <v>33.21</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="11" t="n">
         <v>89.25</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="11" t="n">
         <v>31.38</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="11" t="n">
         <v>91.21</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="11" t="n">
         <v>31.48</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="G33" s="11" t="n">
         <v>89.19</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="16" t="n">
         <f aca="false">AVERAGE(B33,D33,F33)</f>
         <v>32.0233333333333</v>
       </c>
-      <c r="I33" s="12" t="n">
+      <c r="I33" s="16" t="n">
         <f aca="false">AVERAGE(C33,E33,G33)</f>
         <v>89.8833333333333</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="10" t="n">
+      <c r="K33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="13" t="n">
         <f aca="false">F38</f>
         <v>40.1133333333333</v>
       </c>
-      <c r="M33" s="10" t="n">
+      <c r="M33" s="13" t="n">
         <f aca="false">G38</f>
         <v>83.89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="11" t="n">
         <v>32.32</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="11" t="n">
         <v>98.9</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="11" t="n">
         <v>26.99</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="11" t="n">
         <v>87.72</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="11" t="n">
         <v>31.95</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="11" t="n">
         <v>93.28</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="16" t="n">
         <f aca="false">AVERAGE(B34,D34,F34)</f>
         <v>30.42</v>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" s="16" t="n">
         <f aca="false">AVERAGE(C34,E34,G34)</f>
         <v>93.3</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="10" t="n">
+      <c r="K34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="13" t="n">
         <f aca="false">AVERAGE(L31:L33)</f>
         <v>39.1522222222222</v>
       </c>
-      <c r="M34" s="10" t="n">
+      <c r="M34" s="13" t="n">
         <f aca="false">AVERAGE(M31:M33)</f>
         <v>82.7427777777778</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="11" t="n">
         <v>18.33</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="11" t="n">
         <v>93.02</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="11" t="n">
         <v>18.53</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="11" t="n">
         <v>91.19</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="11" t="n">
         <v>19.31</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G35" s="11" t="n">
         <v>97.56</v>
       </c>
-      <c r="H35" s="12" t="n">
+      <c r="H35" s="16" t="n">
         <f aca="false">AVERAGE(B35,D35,F35)</f>
         <v>18.7233333333333</v>
       </c>
-      <c r="I35" s="12" t="n">
+      <c r="I35" s="16" t="n">
         <f aca="false">AVERAGE(C35,E35,G35)</f>
         <v>93.9233333333333</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="11" t="n">
         <v>97.88</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="11" t="n">
         <v>38.51</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="11" t="n">
         <v>96.88</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="11" t="n">
         <v>38.51</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="11" t="n">
         <v>96.88</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="G36" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="H36" s="12" t="n">
+      <c r="H36" s="16" t="n">
         <f aca="false">AVERAGE(B36,D36,F36)</f>
         <v>97.2133333333333</v>
       </c>
-      <c r="I36" s="12" t="n">
+      <c r="I36" s="16" t="n">
         <f aca="false">AVERAGE(C36,E36,G36)</f>
         <v>38.34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="11" t="n">
         <v>19.34</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="11" t="n">
         <v>92.39</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="11" t="n">
         <v>19.31</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E37" s="11" t="n">
         <v>97.56</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="11" t="n">
         <v>20.97</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="G37" s="11" t="n">
         <v>97.67</v>
       </c>
-      <c r="H37" s="12" t="n">
+      <c r="H37" s="16" t="n">
         <f aca="false">AVERAGE(B37,D37,F37)</f>
         <v>19.8733333333333</v>
       </c>
-      <c r="I37" s="12" t="n">
+      <c r="I37" s="16" t="n">
         <f aca="false">AVERAGE(C37,E37,G37)</f>
         <v>95.8733333333333</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="10" t="n">
+      <c r="A38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="13" t="n">
         <f aca="false">AVERAGE(B32:B37)</f>
         <v>40.0383333333333</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="13" t="n">
         <f aca="false">AVERAGE(C32:C37)</f>
         <v>83.3433333333333</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="13" t="n">
         <f aca="false">AVERAGE(D32:D37)</f>
         <v>37.305</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="13" t="n">
         <f aca="false">AVERAGE(E32:E37)</f>
         <v>80.995</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="13" t="n">
         <f aca="false">AVERAGE(F32:F37)</f>
         <v>40.1133333333333</v>
       </c>
-      <c r="G38" s="10" t="n">
+      <c r="G38" s="13" t="n">
         <f aca="false">AVERAGE(G32:G37)</f>
         <v>83.89</v>
       </c>
-      <c r="H38" s="10" t="n">
+      <c r="H38" s="13" t="n">
         <f aca="false">AVERAGE(H32:H37)</f>
         <v>39.1522222222222</v>
       </c>
-      <c r="I38" s="10" t="n">
+      <c r="I38" s="13" t="n">
         <f aca="false">AVERAGE(I32:I37)</f>
         <v>82.7427777777778</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="10" t="n">
+      <c r="A39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="13" t="n">
         <f aca="false">STDEV(B32:B37)</f>
         <v>29.5036237887258</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="13" t="n">
         <f aca="false">STDEV(C32:C37)</f>
         <v>22.2890014730734</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="13" t="n">
         <f aca="false">STDEV(D32:D37)</f>
         <v>29.6988395396184</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E39" s="13" t="n">
         <f aca="false">STDEV(E32:E37)</f>
         <v>21.6072235606521</v>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F39" s="13" t="n">
         <f aca="false">STDEV(F32:F37)</f>
         <v>28.8543769065746</v>
       </c>
-      <c r="G39" s="10" t="n">
+      <c r="G39" s="13" t="n">
         <f aca="false">STDEV(G32:G37)</f>
         <v>22.8603324560252</v>
       </c>
-      <c r="H39" s="10" t="n">
+      <c r="H39" s="13" t="n">
         <f aca="false">STDEV(H32:H37)</f>
         <v>29.3032135262152</v>
       </c>
-      <c r="I39" s="10" t="n">
+      <c r="I39" s="13" t="n">
         <f aca="false">STDEV(I32:I37)</f>
         <v>22.0780260205246</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L43" s="10" t="n">
+      <c r="L43" s="13" t="n">
         <f aca="false">B50</f>
         <v>24.16</v>
       </c>
-      <c r="M43" s="10" t="n">
+      <c r="M43" s="13" t="n">
         <f aca="false">C50</f>
         <v>47.435</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="11" t="n">
         <v>28.43</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="11" t="n">
         <v>90</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="11" t="n">
         <v>18.18</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="11" t="n">
         <v>76.91</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="11" t="n">
         <v>24.39</v>
       </c>
-      <c r="G44" s="9" t="n">
+      <c r="G44" s="11" t="n">
         <v>87.57</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="16" t="n">
         <f aca="false">AVERAGE(B44,D44,F44)</f>
         <v>23.6666666666667</v>
       </c>
-      <c r="I44" s="12" t="n">
+      <c r="I44" s="16" t="n">
         <f aca="false">AVERAGE(C44,E44,G44)</f>
         <v>84.8266666666667</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="10" t="n">
+      <c r="K44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="13" t="n">
         <f aca="false">D50</f>
         <v>23.195</v>
       </c>
-      <c r="M44" s="10" t="n">
+      <c r="M44" s="13" t="n">
         <f aca="false">E50</f>
         <v>46.2183333333333</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="11" t="n">
         <v>15.83</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="11" t="n">
         <v>86.49</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="11" t="n">
         <v>22.08</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="11" t="n">
         <v>92.93</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="11" t="n">
         <v>8.21</v>
       </c>
-      <c r="G45" s="9" t="n">
+      <c r="G45" s="11" t="n">
         <v>54.63</v>
       </c>
-      <c r="H45" s="12" t="n">
+      <c r="H45" s="16" t="n">
         <f aca="false">AVERAGE(B45,D45,F45)</f>
         <v>15.3733333333333</v>
       </c>
-      <c r="I45" s="12" t="n">
+      <c r="I45" s="16" t="n">
         <f aca="false">AVERAGE(C45,E45,G45)</f>
         <v>78.0166666666667</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L45" s="10" t="n">
+      <c r="K45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="13" t="n">
         <f aca="false">F50</f>
         <v>22.3733333333333</v>
       </c>
-      <c r="M45" s="10" t="n">
+      <c r="M45" s="13" t="n">
         <f aca="false">G50</f>
         <v>42.995</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="11" t="n">
         <v>22.15</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="11" t="n">
         <v>90.68</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D46" s="11" t="n">
         <v>28.36</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E46" s="11" t="n">
         <v>89.03</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="11" t="n">
         <v>32.09</v>
       </c>
-      <c r="G46" s="9" t="n">
+      <c r="G46" s="11" t="n">
         <v>98.63</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="16" t="n">
         <f aca="false">AVERAGE(B46,D46,F46)</f>
         <v>27.5333333333333</v>
       </c>
-      <c r="I46" s="12" t="n">
+      <c r="I46" s="16" t="n">
         <f aca="false">AVERAGE(C46,E46,G46)</f>
         <v>92.78</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L46" s="10" t="n">
+      <c r="K46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="13" t="n">
         <f aca="false">AVERAGE(L43:L45)</f>
         <v>23.2427777777778</v>
       </c>
-      <c r="M46" s="10" t="n">
+      <c r="M46" s="13" t="n">
         <f aca="false">AVERAGE(M43:M45)</f>
         <v>45.5494444444445</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="11" t="n">
         <v>3.73</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="11" t="n">
         <v>8.71</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="G47" s="11" t="n">
         <v>5.07</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="16" t="n">
         <f aca="false">AVERAGE(B47,D47,F47)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="16" t="n">
         <f aca="false">AVERAGE(C47,E47,G47)</f>
         <v>5.83666666666667</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="11" t="n">
         <v>78.55</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C48" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D48" s="11" t="n">
         <v>70.55</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E48" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="11" t="n">
         <v>69.55</v>
       </c>
-      <c r="G48" s="9" t="n">
+      <c r="G48" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="16" t="n">
         <f aca="false">AVERAGE(B48,D48,F48)</f>
         <v>72.8833333333333</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="16" t="n">
         <f aca="false">AVERAGE(C48,E48,G48)</f>
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="11" t="n">
         <v>8.71</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E49" s="9" t="n">
+      <c r="E49" s="11" t="n">
         <v>3.73</v>
       </c>
-      <c r="F49" s="9" t="n">
+      <c r="F49" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="9" t="n">
+      <c r="G49" s="11" t="n">
         <v>5.07</v>
       </c>
-      <c r="H49" s="12" t="n">
+      <c r="H49" s="16" t="n">
         <f aca="false">AVERAGE(B49,D49,F49)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="12" t="n">
+      <c r="I49" s="16" t="n">
         <f aca="false">AVERAGE(C49,E49,G49)</f>
         <v>5.83666666666667</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10" t="n">
+      <c r="A50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="13" t="n">
         <f aca="false">AVERAGE(B44:B49)</f>
         <v>24.16</v>
       </c>
-      <c r="C50" s="10" t="n">
+      <c r="C50" s="13" t="n">
         <f aca="false">AVERAGE(C44:C49)</f>
         <v>47.435</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="13" t="n">
         <f aca="false">AVERAGE(D44:D49)</f>
         <v>23.195</v>
       </c>
-      <c r="E50" s="10" t="n">
+      <c r="E50" s="13" t="n">
         <f aca="false">AVERAGE(E44:E49)</f>
         <v>46.2183333333333</v>
       </c>
-      <c r="F50" s="10" t="n">
+      <c r="F50" s="13" t="n">
         <f aca="false">AVERAGE(F44:F49)</f>
         <v>22.3733333333333</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="G50" s="13" t="n">
         <f aca="false">AVERAGE(G44:G49)</f>
         <v>42.995</v>
       </c>
-      <c r="H50" s="10" t="n">
+      <c r="H50" s="13" t="n">
         <f aca="false">AVERAGE(H44:H49)</f>
         <v>23.2427777777778</v>
       </c>
-      <c r="I50" s="10" t="n">
+      <c r="I50" s="13" t="n">
         <f aca="false">AVERAGE(I44:I49)</f>
         <v>45.5494444444445</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="10" t="n">
+      <c r="A51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="13" t="n">
         <f aca="false">STDEV(B44:B49)</f>
         <v>29.0425384565468</v>
       </c>
-      <c r="C51" s="10" t="n">
+      <c r="C51" s="13" t="n">
         <f aca="false">STDEV(C44:C49)</f>
         <v>45.6457755986247</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="13" t="n">
         <f aca="false">STDEV(D44:D49)</f>
         <v>25.9676057810496</v>
       </c>
-      <c r="E51" s="10" t="n">
+      <c r="E51" s="13" t="n">
         <f aca="false">STDEV(E44:E49)</f>
         <v>44.2412587599705</v>
       </c>
-      <c r="F51" s="10" t="n">
+      <c r="F51" s="13" t="n">
         <f aca="false">STDEV(F44:F49)</f>
         <v>26.5550391953517</v>
       </c>
-      <c r="G51" s="10" t="n">
+      <c r="G51" s="13" t="n">
         <f aca="false">STDEV(G44:G49)</f>
         <v>43.335455114721</v>
       </c>
-      <c r="H51" s="10" t="n">
+      <c r="H51" s="13" t="n">
         <f aca="false">STDEV(H44:H49)</f>
         <v>26.9263993068072</v>
       </c>
-      <c r="I51" s="10" t="n">
+      <c r="I51" s="13" t="n">
         <f aca="false">STDEV(I44:I49)</f>
         <v>43.6941965847318</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="I56" s="9"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L57" s="10" t="n">
+      <c r="L57" s="13" t="n">
         <f aca="false">B64</f>
         <v>34.3183333333333</v>
       </c>
-      <c r="M57" s="10" t="n">
+      <c r="M57" s="13" t="n">
         <f aca="false">C64</f>
         <v>88.6466666666667</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+      <c r="A58" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B58" s="9" t="n">
+      <c r="B58" s="11" t="n">
         <v>23.64</v>
       </c>
-      <c r="C58" s="9" t="n">
+      <c r="C58" s="11" t="n">
         <v>66.45</v>
       </c>
-      <c r="D58" s="9" t="n">
+      <c r="D58" s="11" t="n">
         <v>39.65</v>
       </c>
-      <c r="E58" s="9" t="n">
+      <c r="E58" s="11" t="n">
         <v>72.65</v>
       </c>
-      <c r="F58" s="9" t="n">
+      <c r="F58" s="11" t="n">
         <v>23.49</v>
       </c>
-      <c r="G58" s="9" t="n">
+      <c r="G58" s="11" t="n">
         <v>67.27</v>
       </c>
-      <c r="H58" s="12" t="n">
+      <c r="H58" s="16" t="n">
         <f aca="false">AVERAGE(B58,D58,F58)</f>
         <v>28.9266666666667</v>
       </c>
-      <c r="I58" s="12" t="n">
+      <c r="I58" s="16" t="n">
         <f aca="false">AVERAGE(C58,E58,G58)</f>
         <v>68.79</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L58" s="10" t="n">
+      <c r="K58" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="13" t="n">
         <f aca="false">D64</f>
         <v>36.8166666666667</v>
       </c>
-      <c r="M58" s="10" t="n">
+      <c r="M58" s="13" t="n">
         <f aca="false">E64</f>
         <v>84.5866666666667</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
+      <c r="A59" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B59" s="9" t="n">
+      <c r="B59" s="11" t="n">
         <v>42.79</v>
       </c>
-      <c r="C59" s="9" t="n">
+      <c r="C59" s="11" t="n">
         <v>93.73</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D59" s="11" t="n">
         <v>40.87</v>
       </c>
-      <c r="E59" s="9" t="n">
+      <c r="E59" s="11" t="n">
         <v>87.66</v>
       </c>
-      <c r="F59" s="9" t="n">
+      <c r="F59" s="11" t="n">
         <v>40.25</v>
       </c>
-      <c r="G59" s="9" t="n">
+      <c r="G59" s="11" t="n">
         <v>91.26</v>
       </c>
-      <c r="H59" s="12" t="n">
+      <c r="H59" s="16" t="n">
         <f aca="false">AVERAGE(B59,D59,F59)</f>
         <v>41.3033333333333</v>
       </c>
-      <c r="I59" s="12" t="n">
+      <c r="I59" s="16" t="n">
         <f aca="false">AVERAGE(C59,E59,G59)</f>
         <v>90.8833333333333</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L59" s="10" t="n">
+      <c r="K59" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="13" t="n">
         <f aca="false">F64</f>
         <v>31.5216666666667</v>
       </c>
-      <c r="M59" s="10" t="n">
+      <c r="M59" s="13" t="n">
         <f aca="false">G64</f>
         <v>80.5016666666667</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+      <c r="A60" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B60" s="9" t="n">
+      <c r="B60" s="11" t="n">
         <v>11.95</v>
       </c>
-      <c r="C60" s="9" t="n">
+      <c r="C60" s="11" t="n">
         <v>96.62</v>
       </c>
-      <c r="D60" s="9" t="n">
+      <c r="D60" s="11" t="n">
         <v>13.17</v>
       </c>
-      <c r="E60" s="9" t="n">
+      <c r="E60" s="11" t="n">
         <v>78.04</v>
       </c>
-      <c r="F60" s="9" t="n">
+      <c r="F60" s="11" t="n">
         <v>6.38</v>
       </c>
-      <c r="G60" s="9" t="n">
+      <c r="G60" s="11" t="n">
         <v>61.92</v>
       </c>
-      <c r="H60" s="12" t="n">
+      <c r="H60" s="16" t="n">
         <f aca="false">AVERAGE(B60,D60,F60)</f>
         <v>10.5</v>
       </c>
-      <c r="I60" s="12" t="n">
+      <c r="I60" s="16" t="n">
         <f aca="false">AVERAGE(C60,E60,G60)</f>
         <v>78.86</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L60" s="10" t="n">
+      <c r="K60" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L60" s="13" t="n">
         <f aca="false">AVERAGE(L57:L59)</f>
         <v>34.2188888888889</v>
       </c>
-      <c r="M60" s="10" t="n">
+      <c r="M60" s="13" t="n">
         <f aca="false">AVERAGE(M57:M59)</f>
         <v>84.5783333333333</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
+      <c r="A61" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="9" t="n">
+      <c r="B61" s="11" t="n">
         <v>23.14</v>
       </c>
-      <c r="C61" s="9" t="n">
+      <c r="C61" s="11" t="n">
         <v>97.6</v>
       </c>
-      <c r="D61" s="9" t="n">
+      <c r="D61" s="11" t="n">
         <v>24.84</v>
       </c>
-      <c r="E61" s="9" t="n">
+      <c r="E61" s="11" t="n">
         <v>99.47</v>
       </c>
-      <c r="F61" s="9" t="n">
+      <c r="F61" s="11" t="n">
         <v>23.49</v>
       </c>
-      <c r="G61" s="9" t="n">
+      <c r="G61" s="11" t="n">
         <v>97.03</v>
       </c>
-      <c r="H61" s="12" t="n">
+      <c r="H61" s="16" t="n">
         <f aca="false">AVERAGE(B61,D61,F61)</f>
         <v>23.8233333333333</v>
       </c>
-      <c r="I61" s="12" t="n">
+      <c r="I61" s="16" t="n">
         <f aca="false">AVERAGE(C61,E61,G61)</f>
         <v>98.0333333333333</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
+      <c r="A62" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B62" s="9" t="n">
+      <c r="B62" s="11" t="n">
         <v>80.9</v>
       </c>
-      <c r="C62" s="9" t="n">
+      <c r="C62" s="11" t="n">
         <v>80.45</v>
       </c>
-      <c r="D62" s="9" t="n">
+      <c r="D62" s="11" t="n">
         <v>79.23</v>
       </c>
-      <c r="E62" s="9" t="n">
+      <c r="E62" s="11" t="n">
         <v>70.23</v>
       </c>
-      <c r="F62" s="9" t="n">
+      <c r="F62" s="11" t="n">
         <v>70.68</v>
       </c>
-      <c r="G62" s="9" t="n">
+      <c r="G62" s="11" t="n">
         <v>68.5</v>
       </c>
-      <c r="H62" s="12" t="n">
+      <c r="H62" s="16" t="n">
         <f aca="false">AVERAGE(B62,D62,F62)</f>
         <v>76.9366666666667</v>
       </c>
-      <c r="I62" s="12" t="n">
+      <c r="I62" s="16" t="n">
         <f aca="false">AVERAGE(C62,E62,G62)</f>
         <v>73.06</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
+      <c r="A63" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B63" s="9" t="n">
+      <c r="B63" s="11" t="n">
         <v>23.49</v>
       </c>
-      <c r="C63" s="9" t="n">
+      <c r="C63" s="11" t="n">
         <v>97.03</v>
       </c>
-      <c r="D63" s="9" t="n">
+      <c r="D63" s="11" t="n">
         <v>23.14</v>
       </c>
-      <c r="E63" s="9" t="n">
+      <c r="E63" s="11" t="n">
         <v>99.47</v>
       </c>
-      <c r="F63" s="9" t="n">
+      <c r="F63" s="11" t="n">
         <v>24.84</v>
       </c>
-      <c r="G63" s="9" t="n">
+      <c r="G63" s="11" t="n">
         <v>97.03</v>
       </c>
-      <c r="H63" s="12" t="n">
+      <c r="H63" s="16" t="n">
         <f aca="false">AVERAGE(B63,D63,F63)</f>
         <v>23.8233333333333</v>
       </c>
-      <c r="I63" s="12" t="n">
+      <c r="I63" s="16" t="n">
         <f aca="false">AVERAGE(C63,E63,G63)</f>
         <v>97.8433333333333</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="10" t="n">
+      <c r="A64" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="13" t="n">
         <f aca="false">AVERAGE(B58:B63)</f>
         <v>34.3183333333333</v>
       </c>
-      <c r="C64" s="10" t="n">
+      <c r="C64" s="13" t="n">
         <f aca="false">AVERAGE(C58:C63)</f>
         <v>88.6466666666667</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="13" t="n">
         <f aca="false">AVERAGE(D58:D63)</f>
         <v>36.8166666666667</v>
       </c>
-      <c r="E64" s="10" t="n">
+      <c r="E64" s="13" t="n">
         <f aca="false">AVERAGE(E58:E63)</f>
         <v>84.5866666666667</v>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F64" s="13" t="n">
         <f aca="false">AVERAGE(F58:F63)</f>
         <v>31.5216666666667</v>
       </c>
-      <c r="G64" s="10" t="n">
+      <c r="G64" s="13" t="n">
         <f aca="false">AVERAGE(G58:G63)</f>
         <v>80.5016666666667</v>
       </c>
-      <c r="H64" s="10" t="n">
+      <c r="H64" s="13" t="n">
         <f aca="false">AVERAGE(H58:H63)</f>
         <v>34.2188888888889</v>
       </c>
-      <c r="I64" s="10" t="n">
+      <c r="I64" s="13" t="n">
         <f aca="false">AVERAGE(I58:I63)</f>
         <v>84.5783333333333</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="10" t="n">
+      <c r="A65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="13" t="n">
         <f aca="false">STDEV(B58:B63)</f>
         <v>24.892560669137</v>
       </c>
-      <c r="C65" s="10" t="n">
+      <c r="C65" s="13" t="n">
         <f aca="false">STDEV(C58:C63)</f>
         <v>12.6470086054635</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="13" t="n">
         <f aca="false">STDEV(D58:D63)</f>
         <v>23.2937963128956</v>
       </c>
-      <c r="E65" s="10" t="n">
+      <c r="E65" s="13" t="n">
         <f aca="false">STDEV(E58:E63)</f>
         <v>12.9917614920636</v>
       </c>
-      <c r="F65" s="10" t="n">
+      <c r="F65" s="13" t="n">
         <f aca="false">STDEV(F58:F63)</f>
         <v>21.9787273668579</v>
       </c>
-      <c r="G65" s="10" t="n">
+      <c r="G65" s="13" t="n">
         <f aca="false">STDEV(G58:G63)</f>
         <v>16.2880857275085</v>
       </c>
-      <c r="H65" s="10" t="n">
+      <c r="H65" s="13" t="n">
         <f aca="false">STDEV(H58:H63)</f>
         <v>23.1591292934262</v>
       </c>
-      <c r="I65" s="10" t="n">
+      <c r="I65" s="13" t="n">
         <f aca="false">STDEV(I58:I63)</f>
         <v>12.7388624557559</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="A67" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L69" s="10" t="n">
+      <c r="L69" s="13" t="n">
         <f aca="false">B76</f>
         <v>14.9333333333333</v>
       </c>
-      <c r="M69" s="10" t="n">
+      <c r="M69" s="13" t="n">
         <f aca="false">C76</f>
         <v>31.8333333333333</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="n">
+      <c r="A70" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B70" s="9" t="n">
+      <c r="B70" s="11" t="n">
         <v>22.61</v>
       </c>
-      <c r="C70" s="9" t="n">
+      <c r="C70" s="11" t="n">
         <v>70.76</v>
       </c>
-      <c r="D70" s="9" t="n">
+      <c r="D70" s="11" t="n">
         <v>25.64</v>
       </c>
-      <c r="E70" s="9" t="n">
+      <c r="E70" s="11" t="n">
         <v>71.92</v>
       </c>
-      <c r="F70" s="9" t="n">
+      <c r="F70" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="G70" s="9" t="n">
+      <c r="G70" s="11" t="n">
         <v>75.21</v>
       </c>
-      <c r="H70" s="12" t="n">
+      <c r="H70" s="16" t="n">
         <f aca="false">AVERAGE(B70,D70,F70)</f>
         <v>24.75</v>
       </c>
-      <c r="I70" s="12" t="n">
+      <c r="I70" s="16" t="n">
         <f aca="false">AVERAGE(C70,E70,G70)</f>
         <v>72.63</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L70" s="10" t="n">
+      <c r="K70" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L70" s="13" t="n">
         <f aca="false">D76</f>
         <v>13.73</v>
       </c>
-      <c r="M70" s="10" t="n">
+      <c r="M70" s="13" t="n">
         <f aca="false">E76</f>
         <v>43.715</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="n">
+      <c r="A71" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B71" s="9" t="n">
+      <c r="B71" s="11" t="n">
         <v>28.55</v>
       </c>
-      <c r="C71" s="9" t="n">
+      <c r="C71" s="11" t="n">
         <v>15.58</v>
       </c>
-      <c r="D71" s="9" t="n">
+      <c r="D71" s="11" t="n">
         <v>19.28</v>
       </c>
-      <c r="E71" s="9" t="n">
+      <c r="E71" s="11" t="n">
         <v>87.06</v>
       </c>
-      <c r="F71" s="9" t="n">
+      <c r="F71" s="11" t="n">
         <v>22.07</v>
       </c>
-      <c r="G71" s="9" t="n">
+      <c r="G71" s="11" t="n">
         <v>94.53</v>
       </c>
-      <c r="H71" s="12" t="n">
+      <c r="H71" s="16" t="n">
         <f aca="false">AVERAGE(B71,D71,F71)</f>
         <v>23.3</v>
       </c>
-      <c r="I71" s="12" t="n">
+      <c r="I71" s="16" t="n">
         <f aca="false">AVERAGE(C71,E71,G71)</f>
         <v>65.7233333333334</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L71" s="10" t="n">
+      <c r="K71" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="13" t="n">
         <f aca="false">F76</f>
         <v>13.795</v>
       </c>
-      <c r="M71" s="10" t="n">
+      <c r="M71" s="13" t="n">
         <f aca="false">G76</f>
         <v>46.26</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="n">
+      <c r="A72" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B72" s="9" t="n">
+      <c r="B72" s="11" t="n">
         <v>32.77</v>
       </c>
-      <c r="C72" s="9" t="n">
+      <c r="C72" s="11" t="n">
         <v>92.87</v>
       </c>
-      <c r="D72" s="9" t="n">
+      <c r="D72" s="11" t="n">
         <v>29.77</v>
       </c>
-      <c r="E72" s="9" t="n">
+      <c r="E72" s="11" t="n">
         <v>90.17</v>
       </c>
-      <c r="F72" s="9" t="n">
+      <c r="F72" s="11" t="n">
         <v>27.1</v>
       </c>
-      <c r="G72" s="9" t="n">
+      <c r="G72" s="11" t="n">
         <v>89.4</v>
       </c>
-      <c r="H72" s="12" t="n">
+      <c r="H72" s="16" t="n">
         <f aca="false">AVERAGE(B72,D72,F72)</f>
         <v>29.88</v>
       </c>
-      <c r="I72" s="12" t="n">
+      <c r="I72" s="16" t="n">
         <f aca="false">AVERAGE(C72,E72,G72)</f>
         <v>90.8133333333333</v>
       </c>
-      <c r="K72" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="10" t="n">
+      <c r="K72" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L72" s="13" t="n">
         <f aca="false">AVERAGE(L69:L71)</f>
         <v>14.1527777777778</v>
       </c>
-      <c r="M72" s="10" t="n">
+      <c r="M72" s="13" t="n">
         <f aca="false">AVERAGE(M69:M71)</f>
         <v>40.6027777777778</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
+      <c r="A73" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B73" s="9" t="n">
+      <c r="B73" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C73" s="9" t="n">
+      <c r="C73" s="11" t="n">
         <v>5.73</v>
       </c>
-      <c r="D73" s="9" t="n">
+      <c r="D73" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E73" s="9" t="n">
+      <c r="E73" s="11" t="n">
         <v>3.07</v>
       </c>
-      <c r="F73" s="9" t="n">
+      <c r="F73" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G73" s="9" t="n">
+      <c r="G73" s="11" t="n">
         <v>5.71</v>
       </c>
-      <c r="H73" s="12" t="n">
+      <c r="H73" s="16" t="n">
         <f aca="false">AVERAGE(B73,D73,F73)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="12" t="n">
+      <c r="I73" s="16" t="n">
         <f aca="false">AVERAGE(C73,E73,G73)</f>
         <v>4.83666666666667</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="n">
+      <c r="A74" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B74" s="9" t="n">
+      <c r="B74" s="11" t="n">
         <v>5.67</v>
       </c>
-      <c r="C74" s="9" t="n">
+      <c r="C74" s="11" t="n">
         <v>2.33</v>
       </c>
-      <c r="D74" s="9" t="n">
+      <c r="D74" s="11" t="n">
         <v>7.69</v>
       </c>
-      <c r="E74" s="9" t="n">
+      <c r="E74" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F74" s="9" t="n">
+      <c r="F74" s="11" t="n">
         <v>7.6</v>
       </c>
-      <c r="G74" s="9" t="n">
+      <c r="G74" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="H74" s="12" t="n">
+      <c r="H74" s="16" t="n">
         <f aca="false">AVERAGE(B74,D74,F74)</f>
         <v>6.98666666666667</v>
       </c>
-      <c r="I74" s="12" t="n">
+      <c r="I74" s="16" t="n">
         <f aca="false">AVERAGE(C74,E74,G74)</f>
         <v>3.77666666666667</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="n">
+      <c r="A75" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="9" t="n">
+      <c r="B75" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="9" t="n">
+      <c r="C75" s="11" t="n">
         <v>3.73</v>
       </c>
-      <c r="D75" s="9" t="n">
+      <c r="D75" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E75" s="9" t="n">
+      <c r="E75" s="11" t="n">
         <v>5.07</v>
       </c>
-      <c r="F75" s="9" t="n">
+      <c r="F75" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G75" s="9" t="n">
+      <c r="G75" s="11" t="n">
         <v>8.71</v>
       </c>
-      <c r="H75" s="12" t="n">
+      <c r="H75" s="16" t="n">
         <f aca="false">AVERAGE(B75,D75,F75)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="12" t="n">
+      <c r="I75" s="16" t="n">
         <f aca="false">AVERAGE(C75,E75,G75)</f>
         <v>5.83666666666667</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="10" t="n">
+      <c r="A76" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="13" t="n">
         <f aca="false">AVERAGE(B70:B75)</f>
         <v>14.9333333333333</v>
       </c>
-      <c r="C76" s="10" t="n">
+      <c r="C76" s="13" t="n">
         <f aca="false">AVERAGE(C70:C75)</f>
         <v>31.8333333333333</v>
       </c>
-      <c r="D76" s="10" t="n">
+      <c r="D76" s="13" t="n">
         <f aca="false">AVERAGE(D70:D75)</f>
         <v>13.73</v>
       </c>
-      <c r="E76" s="10" t="n">
+      <c r="E76" s="13" t="n">
         <f aca="false">AVERAGE(E70:E75)</f>
         <v>43.715</v>
       </c>
-      <c r="F76" s="10" t="n">
+      <c r="F76" s="13" t="n">
         <f aca="false">AVERAGE(F70:F75)</f>
         <v>13.795</v>
       </c>
-      <c r="G76" s="10" t="n">
+      <c r="G76" s="13" t="n">
         <f aca="false">AVERAGE(G70:G75)</f>
         <v>46.26</v>
       </c>
-      <c r="H76" s="10" t="n">
+      <c r="H76" s="13" t="n">
         <f aca="false">AVERAGE(H70:H75)</f>
         <v>14.1527777777778</v>
       </c>
-      <c r="I76" s="10" t="n">
+      <c r="I76" s="13" t="n">
         <f aca="false">AVERAGE(I70:I75)</f>
         <v>40.6027777777778</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="10" t="n">
+      <c r="A77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="13" t="n">
         <f aca="false">STDEV(B70:B75)</f>
         <v>14.7939834617545</v>
       </c>
-      <c r="C77" s="10" t="n">
+      <c r="C77" s="13" t="n">
         <f aca="false">STDEV(C70:C75)</f>
         <v>39.6145400915708</v>
       </c>
-      <c r="D77" s="10" t="n">
+      <c r="D77" s="13" t="n">
         <f aca="false">STDEV(D70:D75)</f>
         <v>12.9879913766525</v>
       </c>
-      <c r="E77" s="10" t="n">
+      <c r="E77" s="13" t="n">
         <f aca="false">STDEV(E70:E75)</f>
         <v>43.5354599148786</v>
       </c>
-      <c r="F77" s="10" t="n">
+      <c r="F77" s="13" t="n">
         <f aca="false">STDEV(F70:F75)</f>
         <v>12.7549421794064</v>
       </c>
-      <c r="G77" s="10" t="n">
+      <c r="G77" s="13" t="n">
         <f aca="false">STDEV(G70:G75)</f>
         <v>44.4282963886755</v>
       </c>
-      <c r="H77" s="10" t="n">
+      <c r="H77" s="13" t="n">
         <f aca="false">STDEV(H70:H75)</f>
         <v>13.381133719892</v>
       </c>
-      <c r="I77" s="10" t="n">
+      <c r="I77" s="13" t="n">
         <f aca="false">STDEV(I70:I75)</f>
         <v>40.0548244516419</v>
       </c>
@@ -4024,4 +4213,86 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="16.53"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17"/>
+      <c r="C3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="19" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="D4" s="19" t="n">
+        <v>2.16666666666667</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19" t="n">
+        <v>3.16666666666667</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>2.16666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/calculation.xlsx
+++ b/data/calculation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -199,6 +199,107 @@
   </si>
   <si>
     <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Indonesia (Non-Swipe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Indonesia (Swipe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frekuensi penggunaan smartphone</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bahasa Inggris </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Non-Swipe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bahasa Inggris </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Swipe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bahasa Jawa </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Non-Swipe)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bahasa Jawa </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Swipe)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -210,7 +311,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -247,6 +348,21 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,11 +431,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,8 +491,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -404,7 +540,7 @@
       <selection pane="bottomLeft" activeCell="AQ9" activeCellId="0" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="21.39"/>
@@ -412,7 +548,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="46" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="51" style="0" width="18.88"/>
   </cols>
@@ -1581,11 +1717,11 @@
   </sheetPr>
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X17" activeCellId="0" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.74"/>
@@ -4220,13 +4356,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:Q25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="16.53"/>
   </cols>
@@ -4248,44 +4384,486 @@
       <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="M3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="20" t="n">
         <v>3.66666666666667</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="20" t="n">
         <v>2.16666666666667</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="20" t="n">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="20" t="n">
         <v>3.16666666666667</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="20" t="n">
         <v>2.16666666666667</v>
       </c>
+      <c r="G6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>0.369274</v>
+      </c>
+      <c r="I6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="M6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>0.369274</v>
+      </c>
+      <c r="O6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="24" t="n">
+        <v>-0.510444</v>
+      </c>
+      <c r="I7" s="24" t="n">
+        <v>-0.966328</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="M7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="23" t="n">
+        <v>0.141066</v>
+      </c>
+      <c r="O7" s="23" t="n">
+        <v>-0.025981</v>
+      </c>
+      <c r="P7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>0.255213</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>0.553521</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>-0.597553</v>
+      </c>
+      <c r="K8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="23" t="n">
+        <v>-0.236428</v>
+      </c>
+      <c r="O8" s="23" t="n">
+        <v>0.112654</v>
+      </c>
+      <c r="P8" s="24" t="n">
+        <v>0.768064</v>
+      </c>
+      <c r="Q8" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="M11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="18"/>
+      <c r="H12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="M13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>0.369274</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="M14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="23" t="n">
+        <v>0.369274</v>
+      </c>
+      <c r="O14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="24" t="n">
+        <v>0.648237</v>
+      </c>
+      <c r="I15" s="23" t="n">
+        <v>0.167256</v>
+      </c>
+      <c r="J15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="M15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="24" t="n">
+        <v>0.897967</v>
+      </c>
+      <c r="O15" s="24" t="n">
+        <v>0.635931</v>
+      </c>
+      <c r="P15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <v>-0.518784</v>
+      </c>
+      <c r="I16" s="23" t="n">
+        <v>-0.112104</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>-0.98653</v>
+      </c>
+      <c r="K16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="23" t="n">
+        <v>-0.461603</v>
+      </c>
+      <c r="O16" s="23" t="n">
+        <v>-0.108759</v>
+      </c>
+      <c r="P16" s="23" t="n">
+        <v>-0.138022</v>
+      </c>
+      <c r="Q16" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="M20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="18"/>
+      <c r="H21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="M22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="23" t="n">
+        <v>0.369274</v>
+      </c>
+      <c r="I23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="M23" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="23" t="n">
+        <v>0.369274</v>
+      </c>
+      <c r="O23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="23" t="n">
+        <v>-0.140737</v>
+      </c>
+      <c r="I24" s="23" t="n">
+        <v>-0.288321</v>
+      </c>
+      <c r="J24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="M24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="24" t="n">
+        <v>0.925473</v>
+      </c>
+      <c r="O24" s="24" t="n">
+        <v>0.552574</v>
+      </c>
+      <c r="P24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="23" t="n">
+        <v>-0.464352</v>
+      </c>
+      <c r="I25" s="23" t="n">
+        <v>0.258544</v>
+      </c>
+      <c r="J25" s="24" t="n">
+        <v>-0.532386</v>
+      </c>
+      <c r="K25" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="24" t="n">
+        <v>0.803802</v>
+      </c>
+      <c r="O25" s="24" t="n">
+        <v>0.574501</v>
+      </c>
+      <c r="P25" s="24" t="n">
+        <v>0.966962</v>
+      </c>
+      <c r="Q25" s="23" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="M20:Q20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
